--- a/dataset/2nd_data/hwang/hwang_product_2_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_product_2_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -411,30 +407,22 @@
       <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43139</v>
+      <c r="A2" t="n">
+        <v>20180208</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,8 +473,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43139</v>
+      <c r="A3" t="n">
+        <v>20180208</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -537,8 +525,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43139</v>
+      <c r="A4" t="n">
+        <v>20180208</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -589,8 +577,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43139</v>
+      <c r="A5" t="n">
+        <v>20180208</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -641,8 +629,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43139</v>
+      <c r="A6" t="n">
+        <v>20180208</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -693,8 +681,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43139</v>
+      <c r="A7" t="n">
+        <v>20180208</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -745,8 +733,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43145</v>
+      <c r="A8" t="n">
+        <v>20180214</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -797,8 +785,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43145</v>
+      <c r="A9" t="n">
+        <v>20180214</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -849,8 +837,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43145</v>
+      <c r="A10" t="n">
+        <v>20180214</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -901,8 +889,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43145</v>
+      <c r="A11" t="n">
+        <v>20180214</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -953,8 +941,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43145</v>
+      <c r="A12" t="n">
+        <v>20180214</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1005,8 +993,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43145</v>
+      <c r="A13" t="n">
+        <v>20180214</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1057,8 +1045,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43153</v>
+      <c r="A14" t="n">
+        <v>20180222</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1109,8 +1097,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>43153</v>
+      <c r="A15" t="n">
+        <v>20180222</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1161,8 +1149,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>43153</v>
+      <c r="A16" t="n">
+        <v>20180222</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1213,8 +1201,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>43153</v>
+      <c r="A17" t="n">
+        <v>20180222</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1265,8 +1253,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>43153</v>
+      <c r="A18" t="n">
+        <v>20180222</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1317,8 +1305,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>43153</v>
+      <c r="A19" t="n">
+        <v>20180222</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1369,8 +1357,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>43160</v>
+      <c r="A20" t="n">
+        <v>20180301</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1421,8 +1409,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>43160</v>
+      <c r="A21" t="n">
+        <v>20180301</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1473,8 +1461,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43160</v>
+      <c r="A22" t="n">
+        <v>20180301</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1525,8 +1513,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43160</v>
+      <c r="A23" t="n">
+        <v>20180301</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1577,8 +1565,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43160</v>
+      <c r="A24" t="n">
+        <v>20180301</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1629,8 +1617,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43160</v>
+      <c r="A25" t="n">
+        <v>20180301</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1681,8 +1669,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43167</v>
+      <c r="A26" t="n">
+        <v>20180308</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1733,8 +1721,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43167</v>
+      <c r="A27" t="n">
+        <v>20180308</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1785,8 +1773,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43167</v>
+      <c r="A28" t="n">
+        <v>20180308</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1837,8 +1825,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>43167</v>
+      <c r="A29" t="n">
+        <v>20180308</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1889,8 +1877,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43167</v>
+      <c r="A30" t="n">
+        <v>20180308</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1941,8 +1929,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>43167</v>
+      <c r="A31" t="n">
+        <v>20180308</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1993,8 +1981,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>43174</v>
+      <c r="A32" t="n">
+        <v>20180315</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2045,8 +2033,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>43174</v>
+      <c r="A33" t="n">
+        <v>20180315</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2097,8 +2085,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>43174</v>
+      <c r="A34" t="n">
+        <v>20180315</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2149,8 +2137,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>43174</v>
+      <c r="A35" t="n">
+        <v>20180315</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2201,8 +2189,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>43174</v>
+      <c r="A36" t="n">
+        <v>20180315</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2253,8 +2241,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>43174</v>
+      <c r="A37" t="n">
+        <v>20180315</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2305,8 +2293,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>43181</v>
+      <c r="A38" t="n">
+        <v>20180322</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2357,8 +2345,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43181</v>
+      <c r="A39" t="n">
+        <v>20180322</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2409,8 +2397,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43181</v>
+      <c r="A40" t="n">
+        <v>20180322</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2461,8 +2449,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43181</v>
+      <c r="A41" t="n">
+        <v>20180322</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2513,8 +2501,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43181</v>
+      <c r="A42" t="n">
+        <v>20180322</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2565,8 +2553,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43181</v>
+      <c r="A43" t="n">
+        <v>20180322</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2617,8 +2605,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43188</v>
+      <c r="A44" t="n">
+        <v>20180329</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2669,8 +2657,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43188</v>
+      <c r="A45" t="n">
+        <v>20180329</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2721,8 +2709,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43188</v>
+      <c r="A46" t="n">
+        <v>20180329</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2773,8 +2761,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43188</v>
+      <c r="A47" t="n">
+        <v>20180329</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2825,8 +2813,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43188</v>
+      <c r="A48" t="n">
+        <v>20180329</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2877,8 +2865,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43188</v>
+      <c r="A49" t="n">
+        <v>20180329</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2929,8 +2917,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43195</v>
+      <c r="A50" t="n">
+        <v>20180405</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2981,8 +2969,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43195</v>
+      <c r="A51" t="n">
+        <v>20180405</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3033,8 +3021,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>43195</v>
+      <c r="A52" t="n">
+        <v>20180405</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3085,8 +3073,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>43195</v>
+      <c r="A53" t="n">
+        <v>20180405</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3137,8 +3125,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>43195</v>
+      <c r="A54" t="n">
+        <v>20180405</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3189,8 +3177,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>43195</v>
+      <c r="A55" t="n">
+        <v>20180405</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3241,8 +3229,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>43202</v>
+      <c r="A56" t="n">
+        <v>20180412</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3293,8 +3281,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>43202</v>
+      <c r="A57" t="n">
+        <v>20180412</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3345,8 +3333,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>43202</v>
+      <c r="A58" t="n">
+        <v>20180412</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3397,8 +3385,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>43202</v>
+      <c r="A59" t="n">
+        <v>20180412</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3449,8 +3437,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>43202</v>
+      <c r="A60" t="n">
+        <v>20180412</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3501,8 +3489,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>43202</v>
+      <c r="A61" t="n">
+        <v>20180412</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3553,8 +3541,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>43208</v>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3605,8 +3593,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>43208</v>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3657,8 +3645,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>43208</v>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3709,8 +3697,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>43208</v>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3761,8 +3749,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>43208</v>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3813,8 +3801,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>43208</v>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3865,8 +3853,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>43216</v>
+      <c r="A68" t="n">
+        <v>20180426</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3917,8 +3905,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>43216</v>
+      <c r="A69" t="n">
+        <v>20180426</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3969,8 +3957,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>43216</v>
+      <c r="A70" t="n">
+        <v>20180426</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4021,8 +4009,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43216</v>
+      <c r="A71" t="n">
+        <v>20180426</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4073,8 +4061,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43216</v>
+      <c r="A72" t="n">
+        <v>20180426</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4125,8 +4113,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43216</v>
+      <c r="A73" t="n">
+        <v>20180426</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4177,8 +4165,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>43223</v>
+      <c r="A74" t="n">
+        <v>20180503</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4229,8 +4217,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43223</v>
+      <c r="A75" t="n">
+        <v>20180503</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4281,8 +4269,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43223</v>
+      <c r="A76" t="n">
+        <v>20180503</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4333,8 +4321,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43223</v>
+      <c r="A77" t="n">
+        <v>20180503</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4385,8 +4373,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43223</v>
+      <c r="A78" t="n">
+        <v>20180503</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4437,8 +4425,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43223</v>
+      <c r="A79" t="n">
+        <v>20180503</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4489,8 +4477,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43230</v>
+      <c r="A80" t="n">
+        <v>20180510</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4541,8 +4529,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43230</v>
+      <c r="A81" t="n">
+        <v>20180510</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4593,8 +4581,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43230</v>
+      <c r="A82" t="n">
+        <v>20180510</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4645,8 +4633,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>43230</v>
+      <c r="A83" t="n">
+        <v>20180510</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4697,8 +4685,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43230</v>
+      <c r="A84" t="n">
+        <v>20180510</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4749,8 +4737,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43230</v>
+      <c r="A85" t="n">
+        <v>20180510</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4801,8 +4789,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43237</v>
+      <c r="A86" t="n">
+        <v>20180517</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4853,8 +4841,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43237</v>
+      <c r="A87" t="n">
+        <v>20180517</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4905,8 +4893,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43237</v>
+      <c r="A88" t="n">
+        <v>20180517</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4957,8 +4945,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43237</v>
+      <c r="A89" t="n">
+        <v>20180517</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5009,8 +4997,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43237</v>
+      <c r="A90" t="n">
+        <v>20180517</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5061,8 +5049,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43237</v>
+      <c r="A91" t="n">
+        <v>20180517</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5113,8 +5101,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43244</v>
+      <c r="A92" t="n">
+        <v>20180524</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5165,8 +5153,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43244</v>
+      <c r="A93" t="n">
+        <v>20180524</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5217,8 +5205,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43244</v>
+      <c r="A94" t="n">
+        <v>20180524</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5269,8 +5257,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43244</v>
+      <c r="A95" t="n">
+        <v>20180524</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5321,8 +5309,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43244</v>
+      <c r="A96" t="n">
+        <v>20180524</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5373,8 +5361,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43244</v>
+      <c r="A97" t="n">
+        <v>20180524</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5425,8 +5413,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43251</v>
+      <c r="A98" t="n">
+        <v>20180531</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5477,8 +5465,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43251</v>
+      <c r="A99" t="n">
+        <v>20180531</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5529,8 +5517,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43251</v>
+      <c r="A100" t="n">
+        <v>20180531</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5581,8 +5569,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43251</v>
+      <c r="A101" t="n">
+        <v>20180531</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5633,8 +5621,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43251</v>
+      <c r="A102" t="n">
+        <v>20180531</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5685,8 +5673,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43251</v>
+      <c r="A103" t="n">
+        <v>20180531</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5737,8 +5725,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43258</v>
+      <c r="A104" t="n">
+        <v>20180607</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5789,8 +5777,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43258</v>
+      <c r="A105" t="n">
+        <v>20180607</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5841,8 +5829,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43258</v>
+      <c r="A106" t="n">
+        <v>20180607</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5893,8 +5881,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43258</v>
+      <c r="A107" t="n">
+        <v>20180607</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5945,8 +5933,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43258</v>
+      <c r="A108" t="n">
+        <v>20180607</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5997,8 +5985,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>43258</v>
+      <c r="A109" t="n">
+        <v>20180607</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6049,8 +6037,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>43265</v>
+      <c r="A110" t="n">
+        <v>20180614</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6101,8 +6089,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>43265</v>
+      <c r="A111" t="n">
+        <v>20180614</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6153,8 +6141,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>43265</v>
+      <c r="A112" t="n">
+        <v>20180614</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6205,8 +6193,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>43265</v>
+      <c r="A113" t="n">
+        <v>20180614</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6257,8 +6245,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>43265</v>
+      <c r="A114" t="n">
+        <v>20180614</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6309,8 +6297,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>43265</v>
+      <c r="A115" t="n">
+        <v>20180614</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6361,8 +6349,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43272</v>
+      <c r="A116" t="n">
+        <v>20180621</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6413,8 +6401,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43272</v>
+      <c r="A117" t="n">
+        <v>20180621</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6465,8 +6453,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43272</v>
+      <c r="A118" t="n">
+        <v>20180621</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6517,8 +6505,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43272</v>
+      <c r="A119" t="n">
+        <v>20180621</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6569,8 +6557,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43272</v>
+      <c r="A120" t="n">
+        <v>20180621</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6621,8 +6609,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43272</v>
+      <c r="A121" t="n">
+        <v>20180621</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
